--- a/19-02-2016/Verifica Excel.xlsx
+++ b/19-02-2016/Verifica Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="11700" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Esercizio1" sheetId="1" r:id="rId1"/>
@@ -786,7 +786,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -796,6 +796,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -986,11 +992,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1032,6 +1035,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1041,7 +1045,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1336,76 +1346,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
     <col min="13" max="13" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A8" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A9" t="s">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>569</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>365</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>124</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="32">
         <f>SUM($B9:$D9)</f>
         <v>1058</v>
       </c>
@@ -1417,25 +1427,25 @@
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
       <c r="L9" s="29"/>
-      <c r="M9" s="3">
+      <c r="M9" s="2">
         <f>SUM($B11:$D11)</f>
         <v>793</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A10" t="s">
+    <row r="10" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>687</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>298</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>354</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="32">
         <f t="shared" ref="E10:E20" si="0">SUM($B10:$D10)</f>
         <v>1339</v>
       </c>
@@ -1447,25 +1457,25 @@
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
       <c r="L10" s="29"/>
-      <c r="M10" s="3">
+      <c r="M10" s="2">
         <f>SUM(E9:E20)</f>
         <v>13756</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>456</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>102</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>235</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="32">
         <f t="shared" si="0"/>
         <v>793</v>
       </c>
@@ -1477,25 +1487,25 @@
       <c r="J11" s="29"/>
       <c r="K11" s="29"/>
       <c r="L11" s="29"/>
-      <c r="M11" s="3">
+      <c r="M11" s="2">
         <f>E19-E11</f>
         <v>280</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>450</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>136</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>618</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="32">
         <f t="shared" si="0"/>
         <v>1204</v>
       </c>
@@ -1507,25 +1517,25 @@
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <f>B9-C9</f>
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>399</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>55</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>394</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="32">
         <f t="shared" si="0"/>
         <v>848</v>
       </c>
@@ -1537,25 +1547,29 @@
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
       <c r="L13" s="29"/>
-      <c r="M13" s="4">
+      <c r="M13" s="3">
         <f>MAX(E9:E20)</f>
         <v>1529</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A14" t="s">
+      <c r="N13" t="str">
+        <f>INDEX(A9:A20,MATCH(MAX(E9:E20),E9:E20,0))</f>
+        <v>Ottobre</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>607</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>98</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>410</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="32">
         <f t="shared" si="0"/>
         <v>1115</v>
       </c>
@@ -1567,115 +1581,115 @@
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
       <c r="L14" s="28"/>
-      <c r="M14" s="5">
+      <c r="M14" s="4">
         <f>AVERAGE(E9:E20)</f>
         <v>1146.3333333333333</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
+    <row r="15" spans="1:14">
+      <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>555</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>254</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>529</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="32">
         <f t="shared" si="0"/>
         <v>1338</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
+    <row r="16" spans="1:14">
+      <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>365</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>305</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>543</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="32">
         <f t="shared" si="0"/>
         <v>1213</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>457</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>276</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>396</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="32">
         <f t="shared" si="0"/>
         <v>1129</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>681</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>440</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>408</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="32">
         <f t="shared" si="0"/>
         <v>1529</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>488</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>117</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>468</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="32">
         <f t="shared" si="0"/>
         <v>1073</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>457</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>73</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>587</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="32">
         <f t="shared" si="0"/>
         <v>1117</v>
       </c>
@@ -1734,26 +1748,26 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:11">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="11" t="s">
+      <c r="I7" s="7"/>
+      <c r="J7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1761,7 +1775,7 @@
       <c r="A8" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>0.5</v>
       </c>
       <c r="C8">
@@ -1774,14 +1788,14 @@
         <f>$B8*$C8</f>
         <v>2.5</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <f>COUNTIF($D$8:$D$26, $I8)</f>
         <v>9</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <f>SUMIF($D$8:$D$26, $I8, $E$8:$E$26)</f>
         <v>78.7</v>
       </c>
@@ -1790,7 +1804,7 @@
       <c r="A9" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>3.6</v>
       </c>
       <c r="C9">
@@ -1803,14 +1817,14 @@
         <f t="shared" ref="E9:E26" si="0">$B9*$C9</f>
         <v>7.2</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <f t="shared" ref="J9:J11" si="1">COUNTIF($D$8:$D$26, $I9)</f>
         <v>3</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
         <f t="shared" ref="K9:K11" si="2">SUMIF($D$8:$D$26, $I9, $E$8:$E$26)</f>
         <v>15.899999999999999</v>
       </c>
@@ -1819,7 +1833,7 @@
       <c r="A10" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>0.3</v>
       </c>
       <c r="C10">
@@ -1832,14 +1846,14 @@
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="1">
         <f t="shared" si="2"/>
         <v>23.8</v>
       </c>
@@ -1848,7 +1862,7 @@
       <c r="A11" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>0.7</v>
       </c>
       <c r="C11">
@@ -1861,14 +1875,14 @@
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="1">
         <f t="shared" si="2"/>
         <v>108.8</v>
       </c>
@@ -1877,7 +1891,7 @@
       <c r="A12" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>5.4</v>
       </c>
       <c r="C12">
@@ -1895,7 +1909,7 @@
       <c r="A13" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>2.5</v>
       </c>
       <c r="C13">
@@ -1913,7 +1927,7 @@
       <c r="A14" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>1.8</v>
       </c>
       <c r="C14">
@@ -1926,7 +1940,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="I14" s="12" t="s">
         <v>59</v>
       </c>
       <c r="J14">
@@ -1938,7 +1952,7 @@
       <c r="A15" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>49.9</v>
       </c>
       <c r="C15">
@@ -1951,10 +1965,10 @@
         <f t="shared" si="0"/>
         <v>49.9</v>
       </c>
-      <c r="I15" s="13" t="s">
+      <c r="I15" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="J15" s="30">
+      <c r="J15" s="26">
         <v>0.12</v>
       </c>
     </row>
@@ -1962,7 +1976,7 @@
       <c r="A16" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>34.9</v>
       </c>
       <c r="C16">
@@ -1975,7 +1989,7 @@
         <f t="shared" si="0"/>
         <v>34.9</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="I16" s="12" t="s">
         <v>60</v>
       </c>
       <c r="J16">
@@ -1987,7 +2001,7 @@
       <c r="A17" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>2.5</v>
       </c>
       <c r="C17">
@@ -2005,7 +2019,7 @@
       <c r="A18" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>1.5</v>
       </c>
       <c r="C18">
@@ -2023,7 +2037,7 @@
       <c r="A19" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>6</v>
       </c>
       <c r="C19">
@@ -2041,7 +2055,7 @@
       <c r="A20" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>4.5</v>
       </c>
       <c r="C20">
@@ -2059,7 +2073,7 @@
       <c r="A21" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>2.2999999999999998</v>
       </c>
       <c r="C21">
@@ -2077,7 +2091,7 @@
       <c r="A22" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>4.2</v>
       </c>
       <c r="C22">
@@ -2095,7 +2109,7 @@
       <c r="A23" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>1.5</v>
       </c>
       <c r="C23">
@@ -2113,7 +2127,7 @@
       <c r="A24" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>2</v>
       </c>
       <c r="C24">
@@ -2131,7 +2145,7 @@
       <c r="A25" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>12</v>
       </c>
       <c r="C25">
@@ -2149,7 +2163,7 @@
       <c r="A26" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>0.4</v>
       </c>
       <c r="C26">
@@ -2173,7 +2187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
@@ -2213,2116 +2227,2116 @@
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="9" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="18">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E10" s="16">
+      <c r="C10" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E10" s="15">
         <v>5</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <f>$E10*$J$9</f>
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>6</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="16">
         <f t="shared" ref="F11:F74" si="0">$E11*$J$9</f>
         <v>54</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="20" t="s">
+      <c r="I11" s="7"/>
+      <c r="J11" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="K11" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="L11" s="21" t="s">
+      <c r="L11" s="20" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <v>11</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="16">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="I12" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="J12" s="2">
+      <c r="I12" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="J12" s="1">
         <f>COUNTIF($D$10:$D$103,$I12)</f>
         <v>44</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="1">
         <f>SUMIF($D$10:$D$103,$I12, $F$10:$F$103)</f>
         <v>2610</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="1">
         <f>$K12/$J12</f>
         <v>59.31818181818182</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E13" s="16">
+      <c r="D13" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E13" s="15">
         <v>9</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="16">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="I13" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <f t="shared" ref="J13:J18" si="1">COUNTIF($D$10:$D$103,$I13)</f>
         <v>6</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="1">
         <f t="shared" ref="K13:K18" si="2">SUMIF($D$10:$D$103,$I13, $F$10:$F$103)</f>
         <v>450</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="1">
         <f t="shared" ref="L13:L18" si="3">$K13/$J13</f>
         <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <v>14</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="16">
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="I14" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="1">
         <f t="shared" si="2"/>
         <v>711</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="1">
         <f t="shared" si="3"/>
         <v>64.63636363636364</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="15">
         <v>4</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="16">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="I15" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="1">
         <f t="shared" si="2"/>
         <v>468</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="1">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="15" t="s">
+      <c r="C16" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="15">
         <v>8</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="16">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="I16" s="23" t="s">
+      <c r="I16" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="1">
         <f t="shared" si="2"/>
         <v>648</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="1">
         <f t="shared" si="3"/>
         <v>58.909090909090907</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="15">
         <v>9</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="16">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="I17" s="23" t="s">
+      <c r="I17" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="1">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="1">
         <f t="shared" si="2"/>
         <v>387</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="1">
         <f t="shared" si="3"/>
         <v>64.5</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="15" t="s">
+      <c r="C18" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="15">
         <v>4</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="16">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="I18" s="24" t="s">
+      <c r="I18" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="1">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="1">
         <f t="shared" si="2"/>
         <v>396</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="1">
         <f t="shared" si="3"/>
         <v>56.571428571428569</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E19" s="16">
+      <c r="C19" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E19" s="15">
         <v>5</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="16">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E20" s="16">
+      <c r="C20" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E20" s="15">
         <v>11</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="16">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="15">
         <v>17</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="16">
         <f t="shared" si="0"/>
         <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="15">
         <v>10</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="16">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="15">
         <v>15</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="16">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="15">
         <v>11</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="16">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E25" s="16">
+      <c r="D25" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E25" s="15">
         <v>7</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="16">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="15">
         <v>8</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="16">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E27" s="16">
+      <c r="D27" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E27" s="15">
         <v>3</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="16">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E28" s="16">
+      <c r="D28" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E28" s="15">
         <v>9</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="16">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="15">
         <v>2</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="16">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E30" s="16">
+      <c r="D30" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E30" s="15">
         <v>4</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="16">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E31" s="16">
+      <c r="D31" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E31" s="15">
         <v>4</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="16">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E32" s="16">
+      <c r="C32" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E32" s="15">
         <v>6</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="16">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E33" s="16">
+      <c r="C33" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E33" s="15">
         <v>3</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F33" s="16">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E34" s="16">
+      <c r="C34" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E34" s="15">
         <v>9</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="16">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E35" s="16">
+      <c r="D35" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E35" s="15">
         <v>11</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F35" s="16">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="15">
         <v>9</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F36" s="16">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E37" s="16">
+      <c r="C37" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E37" s="15">
         <v>12</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F37" s="16">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E38" s="16">
+      <c r="D38" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E38" s="15">
         <v>3</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F38" s="16">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D39" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E39" s="16">
+      <c r="D39" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E39" s="15">
         <v>6</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F39" s="16">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" s="15" t="s">
+      <c r="C40" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E40" s="15">
         <v>15</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F40" s="16">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D41" s="15" t="s">
+      <c r="D41" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41" s="15">
         <v>6</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F41" s="16">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="C42" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E42" s="16">
+      <c r="C42" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E42" s="15">
         <v>5</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F42" s="16">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E43" s="15">
         <v>6</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F43" s="16">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D44" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E44" s="16">
+      <c r="D44" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E44" s="15">
         <v>5</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F44" s="16">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C45" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D45" s="15" t="s">
+      <c r="C45" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E45" s="15">
         <v>13</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F45" s="16">
         <f t="shared" si="0"/>
         <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C46" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D46" s="15" t="s">
+      <c r="C46" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E46" s="15">
         <v>5</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F46" s="16">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C47" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D47" s="15" t="s">
+      <c r="C47" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="E47" s="16">
+      <c r="E47" s="15">
         <v>11</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F47" s="16">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D48" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E48" s="15">
         <v>2</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F48" s="16">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="C49" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E49" s="16">
+      <c r="C49" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E49" s="15">
         <v>11</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F49" s="16">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C50" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E50" s="16">
+      <c r="C50" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E50" s="15">
         <v>3</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F50" s="16">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="C51" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D51" s="15" t="s">
+      <c r="C51" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E51" s="15">
         <v>15</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F51" s="16">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D52" s="15" t="s">
+      <c r="D52" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="E52" s="16">
+      <c r="E52" s="15">
         <v>13</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F52" s="16">
         <f t="shared" si="0"/>
         <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C53" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D53" s="15" t="s">
+      <c r="C53" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="E53" s="16">
+      <c r="E53" s="15">
         <v>1</v>
       </c>
-      <c r="F53" s="17">
+      <c r="F53" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="C54" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D54" s="15" t="s">
+      <c r="C54" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="E54" s="16">
+      <c r="E54" s="15">
         <v>4</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F54" s="16">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C55" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E55" s="16">
+      <c r="C55" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E55" s="15">
         <v>3</v>
       </c>
-      <c r="F55" s="17">
+      <c r="F55" s="16">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D56" s="15" t="s">
+      <c r="D56" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="E56" s="16">
+      <c r="E56" s="15">
         <v>15</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F56" s="16">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D57" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E57" s="16">
+      <c r="D57" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E57" s="15">
         <v>14</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F57" s="16">
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="C58" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E58" s="16">
+      <c r="C58" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E58" s="15">
         <v>2</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F58" s="16">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D59" s="15" t="s">
+      <c r="D59" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="E59" s="16">
+      <c r="E59" s="15">
         <v>3</v>
       </c>
-      <c r="F59" s="17">
+      <c r="F59" s="16">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="C60" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E60" s="16">
+      <c r="C60" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E60" s="15">
         <v>3</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F60" s="16">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C61" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D61" s="15" t="s">
+      <c r="D61" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="E61" s="16">
+      <c r="E61" s="15">
         <v>3</v>
       </c>
-      <c r="F61" s="17">
+      <c r="F61" s="16">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C62" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D62" s="15" t="s">
+      <c r="C62" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D62" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="E62" s="16">
+      <c r="E62" s="15">
         <v>2</v>
       </c>
-      <c r="F62" s="17">
+      <c r="F62" s="16">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="C63" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E63" s="16">
+      <c r="C63" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E63" s="15">
         <v>6</v>
       </c>
-      <c r="F63" s="17">
+      <c r="F63" s="16">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C64" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D64" s="15" t="s">
+      <c r="D64" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="E64" s="16">
+      <c r="E64" s="15">
         <v>11</v>
       </c>
-      <c r="F64" s="17">
+      <c r="F64" s="16">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C65" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E65" s="16">
+      <c r="C65" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E65" s="15">
         <v>5</v>
       </c>
-      <c r="F65" s="17">
+      <c r="F65" s="16">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="C66" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D66" s="15" t="s">
+      <c r="C66" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D66" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="E66" s="16">
+      <c r="E66" s="15">
         <v>8</v>
       </c>
-      <c r="F66" s="17">
+      <c r="F66" s="16">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="C67" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D67" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E67" s="16">
+      <c r="C67" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E67" s="15">
         <v>6</v>
       </c>
-      <c r="F67" s="17">
+      <c r="F67" s="16">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="C68" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D68" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E68" s="16">
+      <c r="C68" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E68" s="15">
         <v>7</v>
       </c>
-      <c r="F68" s="17">
+      <c r="F68" s="16">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C69" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D69" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E69" s="16">
+      <c r="D69" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E69" s="15">
         <v>4</v>
       </c>
-      <c r="F69" s="17">
+      <c r="F69" s="16">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="B70" s="14" t="s">
+      <c r="B70" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="C70" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D70" s="15" t="s">
+      <c r="C70" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D70" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="E70" s="16">
+      <c r="E70" s="15">
         <v>3</v>
       </c>
-      <c r="F70" s="17">
+      <c r="F70" s="16">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="C71" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D71" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E71" s="16">
+      <c r="C71" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E71" s="15">
         <v>18</v>
       </c>
-      <c r="F71" s="17">
+      <c r="F71" s="16">
         <f t="shared" si="0"/>
         <v>162</v>
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="C72" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D72" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E72" s="16">
+      <c r="D72" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E72" s="15">
         <v>7</v>
       </c>
-      <c r="F72" s="17">
+      <c r="F72" s="16">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="C73" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D73" s="15" t="s">
+      <c r="C73" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D73" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="E73" s="16">
+      <c r="E73" s="15">
         <v>6</v>
       </c>
-      <c r="F73" s="17">
+      <c r="F73" s="16">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="C74" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D74" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E74" s="16">
+      <c r="C74" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E74" s="15">
         <v>6</v>
       </c>
-      <c r="F74" s="17">
+      <c r="F74" s="16">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="C75" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D75" s="15" t="s">
+      <c r="C75" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D75" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="E75" s="16">
+      <c r="E75" s="15">
         <v>2</v>
       </c>
-      <c r="F75" s="17">
+      <c r="F75" s="16">
         <f t="shared" ref="F75:F103" si="4">$E75*$J$9</f>
         <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C76" s="15" t="s">
+      <c r="C76" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D76" s="15" t="s">
+      <c r="D76" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="E76" s="16">
+      <c r="E76" s="15">
         <v>2</v>
       </c>
-      <c r="F76" s="17">
+      <c r="F76" s="16">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="C77" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D77" s="15" t="s">
+      <c r="C77" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D77" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="E77" s="16">
+      <c r="E77" s="15">
         <v>8</v>
       </c>
-      <c r="F77" s="17">
+      <c r="F77" s="16">
         <f t="shared" si="4"/>
         <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="B78" s="14" t="s">
+      <c r="B78" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C78" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D78" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E78" s="16">
+      <c r="D78" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E78" s="15">
         <v>3</v>
       </c>
-      <c r="F78" s="17">
+      <c r="F78" s="16">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="B79" s="14" t="s">
+      <c r="B79" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="C79" s="15" t="s">
+      <c r="C79" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D79" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E79" s="16">
+      <c r="D79" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E79" s="15">
         <v>11</v>
       </c>
-      <c r="F79" s="17">
+      <c r="F79" s="16">
         <f t="shared" si="4"/>
         <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="14" t="s">
+      <c r="A80" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="C80" s="15" t="s">
+      <c r="C80" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D80" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E80" s="16">
+      <c r="D80" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E80" s="15">
         <v>6</v>
       </c>
-      <c r="F80" s="17">
+      <c r="F80" s="16">
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="14" t="s">
+      <c r="A81" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="B81" s="14" t="s">
+      <c r="B81" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="C81" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D81" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E81" s="16">
+      <c r="C81" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E81" s="15">
         <v>2</v>
       </c>
-      <c r="F81" s="17">
+      <c r="F81" s="16">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="B82" s="14" t="s">
+      <c r="B82" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="C82" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D82" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E82" s="16">
+      <c r="C82" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E82" s="15">
         <v>12</v>
       </c>
-      <c r="F82" s="17">
+      <c r="F82" s="16">
         <f t="shared" si="4"/>
         <v>108</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="C83" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D83" s="15" t="s">
+      <c r="D83" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="E83" s="16">
+      <c r="E83" s="15">
         <v>0</v>
       </c>
-      <c r="F83" s="17">
+      <c r="F83" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="B84" s="14" t="s">
+      <c r="B84" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C84" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D84" s="15" t="s">
+      <c r="C84" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D84" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="E84" s="16">
+      <c r="E84" s="15">
         <v>3</v>
       </c>
-      <c r="F84" s="17">
+      <c r="F84" s="16">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="14" t="s">
+      <c r="A85" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C85" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D85" s="15" t="s">
+      <c r="C85" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D85" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="E85" s="16">
+      <c r="E85" s="15">
         <v>6</v>
       </c>
-      <c r="F85" s="17">
+      <c r="F85" s="16">
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="14" t="s">
+      <c r="A86" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="B86" s="14" t="s">
+      <c r="B86" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C86" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D86" s="15" t="s">
+      <c r="C86" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D86" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="E86" s="16">
+      <c r="E86" s="15">
         <v>6</v>
       </c>
-      <c r="F86" s="17">
+      <c r="F86" s="16">
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="B87" s="14" t="s">
+      <c r="B87" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C87" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D87" s="15" t="s">
+      <c r="C87" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D87" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="E87" s="16">
+      <c r="E87" s="15">
         <v>11</v>
       </c>
-      <c r="F87" s="17">
+      <c r="F87" s="16">
         <f t="shared" si="4"/>
         <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="14" t="s">
+      <c r="A88" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="B88" s="14" t="s">
+      <c r="B88" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C88" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D88" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E88" s="16">
+      <c r="C88" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E88" s="15">
         <v>6</v>
       </c>
-      <c r="F88" s="17">
+      <c r="F88" s="16">
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="14" t="s">
+      <c r="A89" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="B89" s="14" t="s">
+      <c r="B89" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="C89" s="15" t="s">
+      <c r="C89" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D89" s="15" t="s">
+      <c r="D89" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="E89" s="16">
+      <c r="E89" s="15">
         <v>5</v>
       </c>
-      <c r="F89" s="17">
+      <c r="F89" s="16">
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="14" t="s">
+      <c r="A90" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="B90" s="14" t="s">
+      <c r="B90" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="C90" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D90" s="15" t="s">
+      <c r="C90" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D90" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="E90" s="16">
+      <c r="E90" s="15">
         <v>2</v>
       </c>
-      <c r="F90" s="17">
+      <c r="F90" s="16">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="14" t="s">
+      <c r="A91" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="C91" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D91" s="15" t="s">
+      <c r="C91" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D91" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="E91" s="16">
+      <c r="E91" s="15">
         <v>10</v>
       </c>
-      <c r="F91" s="17">
+      <c r="F91" s="16">
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="14" t="s">
+      <c r="A92" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="B92" s="14" t="s">
+      <c r="B92" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="C92" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D92" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E92" s="16">
+      <c r="C92" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E92" s="15">
         <v>3</v>
       </c>
-      <c r="F92" s="17">
+      <c r="F92" s="16">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="14" t="s">
+      <c r="A93" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="B93" s="14" t="s">
+      <c r="B93" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="C93" s="15" t="s">
+      <c r="C93" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D93" s="15" t="s">
+      <c r="D93" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="E93" s="16">
+      <c r="E93" s="15">
         <v>3</v>
       </c>
-      <c r="F93" s="17">
+      <c r="F93" s="16">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="14" t="s">
+      <c r="A94" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="B94" s="14" t="s">
+      <c r="B94" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C94" s="15" t="s">
+      <c r="C94" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D94" s="15" t="s">
+      <c r="D94" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="E94" s="16">
+      <c r="E94" s="15">
         <v>2</v>
       </c>
-      <c r="F94" s="17">
+      <c r="F94" s="16">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="14" t="s">
+      <c r="A95" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="B95" s="14" t="s">
+      <c r="B95" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C95" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D95" s="15" t="s">
+      <c r="C95" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D95" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="E95" s="16">
+      <c r="E95" s="15">
         <v>2</v>
       </c>
-      <c r="F95" s="17">
+      <c r="F95" s="16">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="14" t="s">
+      <c r="A96" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="B96" s="14" t="s">
+      <c r="B96" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C96" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D96" s="15" t="s">
+      <c r="C96" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D96" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="E96" s="16">
+      <c r="E96" s="15">
         <v>2</v>
       </c>
-      <c r="F96" s="17">
+      <c r="F96" s="16">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="14" t="s">
+      <c r="A97" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="B97" s="14" t="s">
+      <c r="B97" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="C97" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D97" s="15" t="s">
+      <c r="C97" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D97" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="E97" s="16">
+      <c r="E97" s="15">
         <v>2</v>
       </c>
-      <c r="F97" s="17">
+      <c r="F97" s="16">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="14" t="s">
+      <c r="A98" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="B98" s="14" t="s">
+      <c r="B98" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C98" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D98" s="15" t="s">
+      <c r="C98" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D98" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="E98" s="16">
+      <c r="E98" s="15">
         <v>4</v>
       </c>
-      <c r="F98" s="17">
+      <c r="F98" s="16">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="14" t="s">
+      <c r="A99" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="B99" s="14" t="s">
+      <c r="B99" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="C99" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D99" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E99" s="16">
+      <c r="C99" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D99" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E99" s="15">
         <v>3</v>
       </c>
-      <c r="F99" s="17">
+      <c r="F99" s="16">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="14" t="s">
+      <c r="A100" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="B100" s="14" t="s">
+      <c r="B100" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C100" s="15" t="s">
+      <c r="C100" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D100" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E100" s="16">
+      <c r="D100" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E100" s="15">
         <v>15</v>
       </c>
-      <c r="F100" s="17">
+      <c r="F100" s="16">
         <f t="shared" si="4"/>
         <v>135</v>
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="14" t="s">
+      <c r="A101" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="B101" s="14" t="s">
+      <c r="B101" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="C101" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D101" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E101" s="16">
+      <c r="C101" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D101" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E101" s="15">
         <v>2</v>
       </c>
-      <c r="F101" s="17">
+      <c r="F101" s="16">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="14" t="s">
+      <c r="A102" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="B102" s="14" t="s">
+      <c r="B102" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="C102" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D102" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E102" s="16">
+      <c r="C102" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D102" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E102" s="15">
         <v>7</v>
       </c>
-      <c r="F102" s="17">
+      <c r="F102" s="16">
         <f t="shared" si="4"/>
         <v>63</v>
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="14" t="s">
+      <c r="A103" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="B103" s="14" t="s">
+      <c r="B103" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="C103" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D103" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E103" s="16">
+      <c r="C103" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D103" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E103" s="15">
         <v>8</v>
       </c>
-      <c r="F103" s="17">
+      <c r="F103" s="16">
         <f t="shared" si="4"/>
         <v>72</v>
       </c>
